--- a/results/pvalue_OFFSIDES_all_DGI_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_DGI_AUPRperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.875</t>
+          <t>18.656</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.334</t>
+          <t>17.627</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.453</t>
+          <t>21.065</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14.112</t>
+          <t>20.801</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.827</t>
+          <t>17.352</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
